--- a/01. 设计规格书/TRD文档.xlsx
+++ b/01. 设计规格书/TRD文档.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
   </si>
@@ -40,7 +40,19 @@
     <t>物料描述</t>
   </si>
   <si>
-    <t>ESP32C3</t>
+    <t>TB价格(元)</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>TB购买链接</t>
+  </si>
+  <si>
+    <t>ESP32-C3FH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://item.taobao.com/item.htm?id=721728929770&amp;spm=a21m98.27004841 </t>
   </si>
 </sst>
 </file>
@@ -64,15 +76,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,12 +538,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,12 +668,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -722,6 +737,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8697595" y="325120"/>
+          <a:ext cx="4942205" cy="995045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -974,19 +1036,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.79166666666667" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,13 +1062,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1011,9 +1095,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId2" display="https://item.taobao.com/item.htm?id=721728929770&amp;spm=a21m98.27004841 "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
